--- a/文字当てクイズ.xlsx
+++ b/文字当てクイズ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\20230201\powershell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DC7809-B39B-4E32-BE7A-2C9DD3A837FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301AF31B-F3C9-4729-B830-F82ECAED2C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E077618A-0820-4325-8EB8-BEF003E5E387}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E077618A-0820-4325-8EB8-BEF003E5E387}"/>
   </bookViews>
   <sheets>
     <sheet name="1.遊び方" sheetId="1" r:id="rId1"/>
@@ -37,79 +37,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>3.ソースコード</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>############# バックアップスクリプト   #########</t>
-  </si>
-  <si>
-    <t>############# 新規作成  2022/8/2      ###</t>
-  </si>
-  <si>
-    <t>########################################</t>
-  </si>
-  <si>
-    <t>#バックアップ先ディレクトリの定義</t>
-  </si>
-  <si>
-    <t>$backup_dir = 'C:\backup'</t>
-  </si>
-  <si>
-    <t>#バックアップ先のディレクトリ日付を取得する</t>
-  </si>
-  <si>
-    <t>$dir_name = Get-Date -Format "yyyyMMdd"</t>
-  </si>
-  <si>
-    <t>#バックアップ元のディレクトリの定義</t>
-  </si>
-  <si>
-    <t>$base_dir = 'C:\work\'</t>
-  </si>
-  <si>
-    <t>function check($code) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if($code -eq "True") {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        echo "OK"</t>
-  </si>
-  <si>
     <t xml:space="preserve">    } else {</t>
   </si>
   <si>
-    <t xml:space="preserve">        echo "NG"</t>
-  </si>
-  <si>
     <t xml:space="preserve">    }</t>
   </si>
   <si>
     <t>}</t>
-  </si>
-  <si>
-    <t>#バックアップディレクトリの作成</t>
-  </si>
-  <si>
-    <t>mkdir $backup_dir\$dir_name</t>
-  </si>
-  <si>
-    <t>#リターンコードの定義</t>
-  </si>
-  <si>
-    <t>$code = echo $?</t>
-  </si>
-  <si>
-    <t>check($code)</t>
-  </si>
-  <si>
-    <t>#バックアップファイルの取得「</t>
-  </si>
-  <si>
-    <t>Copy-Item $base_dir -Recurse $backup_dir\$dir_name</t>
   </si>
   <si>
     <t>２．処理の流れ</t>
@@ -179,50 +119,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5.「A,B,Cの3文字を使ったアルファベット3語を入力してください:」がコンソールに表示されるので、A、B、Cの文字を組み合わせて3文字のアルファベットを</t>
-    <rPh sb="43" eb="45">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入力してください。（小文字でもよい)</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
     </rPh>
     <rPh sb="10" eb="13">
       <t>コモジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6. 不正解の場合、下記の文字がコンソールに表示されます。</t>
-    <rPh sb="3" eb="6">
-      <t>フセイカイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -244,6 +146,233 @@
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.「A,B,C,Dの4文字を使ったアルファベット4語を入力してください:」がコンソールに表示されるので、A、B、C、Dの文字を組み合わせて4文字のアルファベットを</t>
+    <rPh sb="45" eb="47">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6. 不正解の場合、もし文字の左からn番目が正解の場合、下記の文字がコンソールに表示されます。正解がない場合は正解表示はでません。</t>
+    <rPh sb="3" eb="6">
+      <t>フセイカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バンメ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイカイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>セイカイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="59">
+      <t>セイカイヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>##########################</t>
+  </si>
+  <si>
+    <t>####  文字当てクイズ     #####</t>
+  </si>
+  <si>
+    <t>####  新規作成 2023/1/31 ##</t>
+  </si>
+  <si>
+    <t>####  修正    2023/2/1  ##</t>
+  </si>
+  <si>
+    <t>$num = 4</t>
+  </si>
+  <si>
+    <t>$i = 0</t>
+  </si>
+  <si>
+    <t>$j = 1</t>
+  </si>
+  <si>
+    <t>####正解文字列を作成する</t>
+  </si>
+  <si>
+    <t>function ans_str {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    while($true){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        $random = Get-Random -Minimum 1 -Maximum 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if ($random -eq 1){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            $msg = $msg + "A"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        } elseif ($random -eq 2) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            $msg = $msg + "B"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        } elseif ($random -eq 3) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            $msg = $msg + "C"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        } elseif ($randon -eq 4) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            $msg = $msg + "D"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        } else {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if($i -eq 3){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return $msg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            break</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        $i += 1</t>
+  </si>
+  <si>
+    <t>#####入力文字列作成処理</t>
+  </si>
+  <si>
+    <t>function str_input {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        $msg = Read-Host("A,B,C,Dの4文字を使ったアルファベット4語を入力してください")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        $flag = $msg -match '[A-D][A-D][A-D][A-D]'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if($flag -eq "True") {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            $count = $msg.Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if ($count -eq $num){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                return $msg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            } else {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Write-Host("4文字にしてください")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Write-Host("A,B,C,D以外入力しないでください")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t>####################</t>
+  </si>
+  <si>
+    <t>#####メイン処理########</t>
+  </si>
+  <si>
+    <t>$ans_str = ans_str</t>
+  </si>
+  <si>
+    <t>##正解まで繰り返す</t>
+  </si>
+  <si>
+    <t>while($true) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    $input_str = str_input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if($ans_str -eq $input_str){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Write-Host("${j}回目で文字列がそろって正解です")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        break</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Write-Host("${j}回目、不正解です")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        $ans_array = $ans_str.ToCharArray()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        $inp_array = $input_str.ToCharArray()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for($k=0;$k -lt $num;$k++){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if ($ans_array[$k] -eq $inp_array[$k]){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                $p = $k + 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Write-Host("左から${p}文字目が正解です")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        $j++</t>
   </si>
 </sst>
 </file>
@@ -478,7 +607,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -540,6 +669,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -741,94 +873,6 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>572048</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>104822</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3672DE4F-73D0-5229-D4EB-8B4CDE7C0B42}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1341120" y="25420320"/>
-          <a:ext cx="3924848" cy="333422"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>610153</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>66716</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0A83356-EFBA-B382-66C8-DEA5E6924043}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1341120" y="26563320"/>
-          <a:ext cx="3962953" cy="295316"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -852,7 +896,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -861,6 +905,94 @@
         <a:xfrm>
           <a:off x="1341120" y="27706320"/>
           <a:ext cx="3982006" cy="219106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371995</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>209611</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1288074-9F4E-5D8B-C2F5-E2054974197F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341120" y="25420320"/>
+          <a:ext cx="3724795" cy="438211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>311120</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>152485</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{950F16BF-5894-358C-A153-1ADDD6A45F99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341120" y="26334720"/>
+          <a:ext cx="4334480" cy="609685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -883,9 +1015,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -900,8 +1032,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2019300" y="1188720"/>
-          <a:ext cx="2049780" cy="693420"/>
+          <a:off x="2019300" y="1203960"/>
+          <a:ext cx="2026920" cy="586740"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -948,141 +1080,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47C07805-CA0E-4480-C805-43092460B13A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2034540" y="2545080"/>
-          <a:ext cx="2019300" cy="640080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>バックアップディレクトリを作成する</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA5DC431-02EA-468F-9DD0-A7CA232F1C2B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2026920" y="3672840"/>
-          <a:ext cx="2019300" cy="640080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>作業に使用したコンテンツファイルをバックアップする</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1097,8 +1103,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2011680" y="5044440"/>
-          <a:ext cx="2049780" cy="693420"/>
+          <a:off x="2011680" y="6431280"/>
+          <a:ext cx="2049780" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1144,32 +1150,248 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D4904CF-4ADD-CAAE-3287-A1E1AB1B7EDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2026920" y="2110740"/>
+          <a:ext cx="1996440" cy="640080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>正解の文字列を作成する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アルファベット</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>文字作成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="フローチャート: 手操作入力 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABDBC39A-FC58-2EF1-B682-3886C69D13AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2034540" y="3253740"/>
+          <a:ext cx="1981200" cy="655320"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アルファベット</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>文字を入力する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="フローチャート: 判断 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB597242-7788-5EDC-50F2-7E34F24EAB0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1760220" y="4175760"/>
+          <a:ext cx="2529840" cy="2110740"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力した文字列が正解と完全一致かしているか？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>346710</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>346710</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B991DFC6-3078-7507-2944-F16AF80D871C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A82139AD-530D-03D8-C5B0-88D7C84733AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3028950" y="1905000"/>
-          <a:ext cx="0" cy="662940"/>
+        <a:xfrm flipH="1">
+          <a:off x="3025140" y="1790700"/>
+          <a:ext cx="7620" cy="320040"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1198,34 +1420,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>354330</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88392</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18DC959B-51B9-4D48-913E-9BB6CAEFC6D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E17D528A-E1F1-49B6-82D7-C4CB40E8378D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="2"/>
-          <a:endCxn id="4" idx="0"/>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3036570" y="3185160"/>
-          <a:ext cx="7620" cy="487680"/>
+        <a:xfrm>
+          <a:off x="3025140" y="2750820"/>
+          <a:ext cx="0" cy="568452"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1254,34 +1476,675 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>354330</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65FBAF5F-7251-45A3-B7FC-AC28B7D224D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3025140" y="3909060"/>
+          <a:ext cx="0" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="フローチャート: 処理 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F77944A-71B9-DAED-1AE6-45266E896ED5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2034540" y="6644640"/>
+          <a:ext cx="1988820" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>正解した回数と「正解しました」のメッセージを標準出力に出力する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>346710</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4EBA77E-7B4D-442F-A5FA-88CDFE451B3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3025140" y="6286500"/>
+          <a:ext cx="3810" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>346710</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>354330</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43276F8A-D9BE-4765-BC54-E9E36739241D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FB159A-D496-4C47-9546-77679044AD2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
+          <a:stCxn id="22" idx="2"/>
           <a:endCxn id="5" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3036570" y="4312920"/>
-          <a:ext cx="0" cy="731520"/>
+          <a:off x="3028950" y="7520940"/>
+          <a:ext cx="7620" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="フローチャート: 処理 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85468821-EBDC-469C-811D-E6B0CC962929}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4693920" y="5974080"/>
+          <a:ext cx="1988820" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>不正解のメッセージと、左から何番目の文字が正解か標準出力に表示する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F3F5EA5-D4AE-09AB-537C-75748062D7E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3337560" y="6202680"/>
+          <a:ext cx="381000" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Y</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="コネクタ: カギ線 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E1A8EC-582B-F846-48E9-4457EB06EF4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="30" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4290060" y="5231130"/>
+          <a:ext cx="1398270" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4559F3F5-0ACC-2932-DE53-DC1CD5774BB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4389120" y="4876800"/>
+          <a:ext cx="365760" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5636E0B2-E9EC-39A2-9047-87E781616F94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5684520" y="6850380"/>
+          <a:ext cx="3810" cy="769620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7836A354-640E-4704-81D3-984DBA9D9516}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5707380" y="7620000"/>
+          <a:ext cx="1668780" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線コネクタ 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{148CDEE3-B5E1-4947-9BF3-DA7891ED537D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7322820" y="3002280"/>
+          <a:ext cx="15240" cy="4610100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直線矢印コネクタ 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{610687E6-25F6-43C4-87EE-03174D4B6B82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2994660" y="3017520"/>
+          <a:ext cx="4335780" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1609,20 +2472,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCD5870-3114-4187-970B-9FA7B5F1EF01}">
   <dimension ref="C3:C120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="3" spans="3:3" ht="21.6" x14ac:dyDescent="0.45">
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.45">
@@ -1630,7 +2493,7 @@
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.45">
@@ -1644,37 +2507,37 @@
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C60" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C82" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C109" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C110" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C115" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C120" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1686,205 +2549,441 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A53482-3BA4-4E94-949A-6723BA858D3E}">
-  <dimension ref="C3:H28"/>
+  <dimension ref="C3:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="3:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:12" ht="19.2" x14ac:dyDescent="0.45">
       <c r="C3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="5" spans="3:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="5" spans="3:12" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="17"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
-    </row>
-    <row r="27" spans="3:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C27" s="18"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20"/>
-    </row>
-    <row r="28" spans="3:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="17"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="17"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="17"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="17"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="17"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="17"/>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="17"/>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="17"/>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="17"/>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="17"/>
+    </row>
+    <row r="39" spans="3:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C39" s="18"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="20"/>
+    </row>
+    <row r="40" spans="3:12" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1894,262 +2993,713 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7099553-071B-4298-B511-342282CF35A0}">
-  <dimension ref="C3:K42"/>
+  <dimension ref="C3:L87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R79" sqref="R79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="3:11" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:12" ht="19.2" x14ac:dyDescent="0.45">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C5" s="4"/>
-      <c r="D5" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="K5" s="5"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C6" s="7"/>
       <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C7" s="7"/>
       <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C8" s="7"/>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C9" s="7"/>
       <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C10" s="7"/>
       <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C11" s="7"/>
       <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C12" s="7"/>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C13" s="7"/>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C14" s="7"/>
       <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C15" s="7"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C16" s="7"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C17" s="7"/>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C18" s="7"/>
       <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C19" s="7"/>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C20" s="7"/>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C21" s="7"/>
       <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C22" s="7"/>
       <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C23" s="7"/>
       <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C24" s="7"/>
-      <c r="K24" s="8"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C25" s="7"/>
-      <c r="K25" s="8"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C26" s="7"/>
-      <c r="K26" s="8"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C27" s="7"/>
       <c r="D27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27" s="8"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C28" s="7"/>
       <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" s="8"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C29" s="7"/>
-      <c r="K29" s="8"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C30" s="7"/>
       <c r="D30" t="s">
-        <v>19</v>
-      </c>
-      <c r="K30" s="8"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C31" s="7"/>
       <c r="D31" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="8"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C32" s="7"/>
       <c r="D32" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="8"/>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C33" s="7"/>
-      <c r="K33" s="8"/>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C34" s="7"/>
-      <c r="K34" s="8"/>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C35" s="7"/>
-      <c r="K35" s="8"/>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C36" s="7"/>
       <c r="D36" t="s">
-        <v>22</v>
-      </c>
-      <c r="K36" s="8"/>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C37" s="7"/>
       <c r="D37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K37" s="8"/>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C38" s="7"/>
-      <c r="K38" s="8"/>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="D38" t="s">
+        <v>35</v>
+      </c>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C39" s="7"/>
       <c r="D39" t="s">
-        <v>19</v>
-      </c>
-      <c r="K39" s="8"/>
-    </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C40" s="7"/>
       <c r="D40" t="s">
-        <v>20</v>
-      </c>
-      <c r="K40" s="8"/>
-    </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C41" s="7"/>
       <c r="D41" t="s">
-        <v>21</v>
-      </c>
-      <c r="K41" s="8"/>
-    </row>
-    <row r="42" spans="3:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C42" s="7"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C43" s="7"/>
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C44" s="7"/>
+      <c r="D44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L44" s="8"/>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C45" s="7"/>
+      <c r="D45" t="s">
+        <v>41</v>
+      </c>
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C46" s="7"/>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C47" s="7"/>
+      <c r="D47" t="s">
+        <v>42</v>
+      </c>
+      <c r="L47" s="8"/>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C48" s="7"/>
+      <c r="D48" t="s">
+        <v>43</v>
+      </c>
+      <c r="L48" s="8"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C49" s="7"/>
+      <c r="D49" t="s">
+        <v>44</v>
+      </c>
+      <c r="L49" s="8"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C50" s="7"/>
+      <c r="D50" t="s">
+        <v>45</v>
+      </c>
+      <c r="L50" s="8"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C51" s="7"/>
+      <c r="D51" t="s">
+        <v>46</v>
+      </c>
+      <c r="L51" s="8"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C52" s="7"/>
+      <c r="D52" t="s">
+        <v>47</v>
+      </c>
+      <c r="L52" s="8"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C53" s="7"/>
+      <c r="D53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L53" s="8"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C54" s="7"/>
+      <c r="D54" t="s">
+        <v>49</v>
+      </c>
+      <c r="L54" s="8"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C55" s="7"/>
+      <c r="D55" t="s">
+        <v>50</v>
+      </c>
+      <c r="L55" s="8"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C56" s="7"/>
+      <c r="D56" t="s">
+        <v>34</v>
+      </c>
+      <c r="L56" s="8"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C57" s="7"/>
+      <c r="D57" t="s">
+        <v>51</v>
+      </c>
+      <c r="L57" s="8"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C58" s="7"/>
+      <c r="D58" t="s">
+        <v>35</v>
+      </c>
+      <c r="L58" s="8"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C59" s="7"/>
+      <c r="L59" s="8"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C60" s="7"/>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="L60" s="8"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C61" s="7"/>
+      <c r="D61" t="s">
+        <v>52</v>
+      </c>
+      <c r="L61" s="8"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C62" s="7"/>
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="8"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C63" s="7"/>
+      <c r="L63" s="8"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C64" s="7"/>
+      <c r="L64" s="8"/>
+    </row>
+    <row r="65" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C65" s="7"/>
+      <c r="D65" t="s">
+        <v>53</v>
+      </c>
+      <c r="L65" s="8"/>
+    </row>
+    <row r="66" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C66" s="7"/>
+      <c r="D66" t="s">
+        <v>54</v>
+      </c>
+      <c r="L66" s="8"/>
+    </row>
+    <row r="67" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C67" s="7"/>
+      <c r="D67" t="s">
+        <v>55</v>
+      </c>
+      <c r="L67" s="8"/>
+    </row>
+    <row r="68" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C68" s="7"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="8"/>
+    </row>
+    <row r="69" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C69" s="7"/>
+      <c r="D69" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="8"/>
+    </row>
+    <row r="70" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C70" s="7"/>
+      <c r="D70" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="8"/>
+    </row>
+    <row r="71" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C71" s="7"/>
+      <c r="D71" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="8"/>
+    </row>
+    <row r="72" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C72" s="7"/>
+      <c r="D72" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="8"/>
+    </row>
+    <row r="73" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C73" s="7"/>
+      <c r="D73" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="8"/>
+    </row>
+    <row r="74" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C74" s="7"/>
+      <c r="D74" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="8"/>
+    </row>
+    <row r="75" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C75" s="7"/>
+      <c r="D75" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="8"/>
+    </row>
+    <row r="76" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C76" s="7"/>
+      <c r="D76" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="8"/>
+    </row>
+    <row r="77" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C77" s="7"/>
+      <c r="D77" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="8"/>
+    </row>
+    <row r="78" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C78" s="7"/>
+      <c r="D78" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="8"/>
+    </row>
+    <row r="79" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C79" s="7"/>
+      <c r="D79" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="8"/>
+    </row>
+    <row r="80" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C80" s="7"/>
+      <c r="D80" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="8"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C81" s="7"/>
+      <c r="D81" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="8"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C82" s="7"/>
+      <c r="D82" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="8"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C83" s="7"/>
+      <c r="D83" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="8"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C84" s="7"/>
+      <c r="D84" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="8"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C85" s="7"/>
+      <c r="D85" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="8"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C86" s="7"/>
+      <c r="D86" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="8"/>
+    </row>
+    <row r="87" spans="3:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C87" s="9"/>
+      <c r="D87" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
